--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Ccr5</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>154.310414570215</v>
+        <v>0.669061</v>
       </c>
       <c r="H2">
-        <v>154.310414570215</v>
+        <v>1.338122</v>
       </c>
       <c r="I2">
-        <v>0.5257246088145511</v>
+        <v>0.002237193723528829</v>
       </c>
       <c r="J2">
-        <v>0.5257246088145511</v>
+        <v>0.001492575542564459</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.188809412900946</v>
+        <v>0.320495</v>
       </c>
       <c r="N2">
-        <v>0.188809412900946</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O2">
-        <v>0.001765855969444405</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P2">
-        <v>0.001765855969444405</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q2">
-        <v>29.13525877950388</v>
+        <v>0.214430705195</v>
       </c>
       <c r="R2">
-        <v>29.13525877950388</v>
+        <v>0.8577228207800001</v>
       </c>
       <c r="S2">
-        <v>0.0009283539387589998</v>
+        <v>6.577610496649611E-06</v>
       </c>
       <c r="T2">
-        <v>0.0009283539387589998</v>
+        <v>2.928434106806926E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>154.310414570215</v>
+        <v>0.669061</v>
       </c>
       <c r="H3">
-        <v>154.310414570215</v>
+        <v>1.338122</v>
       </c>
       <c r="I3">
-        <v>0.5257246088145511</v>
+        <v>0.002237193723528829</v>
       </c>
       <c r="J3">
-        <v>0.5257246088145511</v>
+        <v>0.001492575542564459</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>47.4832128187357</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N3">
-        <v>47.4832128187357</v>
+        <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.4440907554135159</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P3">
-        <v>0.4440907554135159</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q3">
-        <v>7327.154255184852</v>
+        <v>0.007611014915666666</v>
       </c>
       <c r="R3">
-        <v>7327.154255184852</v>
+        <v>0.045666089494</v>
       </c>
       <c r="S3">
-        <v>0.2334694386679292</v>
+        <v>2.334660586687897E-07</v>
       </c>
       <c r="T3">
-        <v>0.2334694386679292</v>
+        <v>1.559129951528104E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -658,173 +661,173 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>154.310414570215</v>
+        <v>0.669061</v>
       </c>
       <c r="H4">
-        <v>154.310414570215</v>
+        <v>1.338122</v>
       </c>
       <c r="I4">
-        <v>0.5257246088145511</v>
+        <v>0.002237193723528829</v>
       </c>
       <c r="J4">
-        <v>0.5257246088145511</v>
+        <v>0.001492575542564459</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.2502954250811</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N4">
-        <v>59.2502954250811</v>
+        <v>146.362926</v>
       </c>
       <c r="O4">
-        <v>0.5541433886170396</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P4">
-        <v>0.5541433886170396</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q4">
-        <v>9142.937650451977</v>
+        <v>32.64190854416201</v>
       </c>
       <c r="R4">
-        <v>9142.937650451977</v>
+        <v>195.851451264972</v>
       </c>
       <c r="S4">
-        <v>0.2913268162078629</v>
+        <v>0.001001282722432436</v>
       </c>
       <c r="T4">
-        <v>0.2913268162078629</v>
+        <v>0.0006686753061209351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>138.333781520811</v>
+        <v>0.669061</v>
       </c>
       <c r="H5">
-        <v>138.333781520811</v>
+        <v>1.338122</v>
       </c>
       <c r="I5">
-        <v>0.4712933561770328</v>
+        <v>0.002237193723528829</v>
       </c>
       <c r="J5">
-        <v>0.4712933561770328</v>
+        <v>0.001492575542564459</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.188809412900946</v>
+        <v>59.61647133333333</v>
       </c>
       <c r="N5">
-        <v>0.188809412900946</v>
+        <v>178.849414</v>
       </c>
       <c r="O5">
-        <v>0.001765855969444405</v>
+        <v>0.5469020717030258</v>
       </c>
       <c r="P5">
-        <v>0.001765855969444405</v>
+        <v>0.5474385827988417</v>
       </c>
       <c r="Q5">
-        <v>26.11872007331205</v>
+        <v>39.88705592675133</v>
       </c>
       <c r="R5">
-        <v>26.11872007331205</v>
+        <v>239.322335560508</v>
       </c>
       <c r="S5">
-        <v>0.0008322361863647018</v>
+        <v>0.001223525882198923</v>
       </c>
       <c r="T5">
-        <v>0.0008322361863647018</v>
+        <v>0.0008170934397416997</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>138.333781520811</v>
+        <v>0.669061</v>
       </c>
       <c r="H6">
-        <v>138.333781520811</v>
+        <v>1.338122</v>
       </c>
       <c r="I6">
-        <v>0.4712933561770328</v>
+        <v>0.002237193723528829</v>
       </c>
       <c r="J6">
-        <v>0.4712933561770328</v>
+        <v>0.001492575542564459</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>47.4832128187357</v>
+        <v>0.271596</v>
       </c>
       <c r="N6">
-        <v>47.4832128187357</v>
+        <v>0.814788</v>
       </c>
       <c r="O6">
-        <v>0.4440907554135159</v>
+        <v>0.002491533157602434</v>
       </c>
       <c r="P6">
-        <v>0.4440907554135159</v>
+        <v>0.00249397735237479</v>
       </c>
       <c r="Q6">
-        <v>6568.532387973156</v>
+        <v>0.181714291356</v>
       </c>
       <c r="R6">
-        <v>6568.532387973156</v>
+        <v>1.090285748136</v>
       </c>
       <c r="S6">
-        <v>0.2092970225660298</v>
+        <v>5.574042342152132E-06</v>
       </c>
       <c r="T6">
-        <v>0.2092970225660298</v>
+        <v>3.722449599864274E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,247 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>138.333781520811</v>
+        <v>157.3478953333333</v>
       </c>
       <c r="H7">
-        <v>138.333781520811</v>
+        <v>472.043686</v>
       </c>
       <c r="I7">
-        <v>0.4712933561770328</v>
+        <v>0.5261369648659905</v>
       </c>
       <c r="J7">
-        <v>0.4712933561770328</v>
+        <v>0.5265296144488896</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.2502954250811</v>
+        <v>0.320495</v>
       </c>
       <c r="N7">
-        <v>59.2502954250811</v>
+        <v>0.6409900000000001</v>
       </c>
       <c r="O7">
-        <v>0.5541433886170396</v>
+        <v>0.00294011664142989</v>
       </c>
       <c r="P7">
-        <v>0.5541433886170396</v>
+        <v>0.001962000597822644</v>
       </c>
       <c r="Q7">
-        <v>8196.317422376675</v>
+        <v>50.42921371485667</v>
       </c>
       <c r="R7">
-        <v>8196.317422376675</v>
+        <v>302.57528228914</v>
       </c>
       <c r="S7">
-        <v>0.2611640974246384</v>
+        <v>0.001546904046073912</v>
       </c>
       <c r="T7">
-        <v>0.2611640974246384</v>
+        <v>0.001033051418320048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.875285369367083</v>
+        <v>157.3478953333333</v>
       </c>
       <c r="H8">
-        <v>0.875285369367083</v>
+        <v>472.043686</v>
       </c>
       <c r="I8">
-        <v>0.002982035008416273</v>
+        <v>0.5261369648659905</v>
       </c>
       <c r="J8">
-        <v>0.002982035008416273</v>
+        <v>0.5265296144488896</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.188809412900946</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N8">
-        <v>0.188809412900946</v>
+        <v>0.034127</v>
       </c>
       <c r="O8">
-        <v>0.001765855969444405</v>
+        <v>0.0001043566572771055</v>
       </c>
       <c r="P8">
-        <v>0.001765855969444405</v>
+        <v>0.0001044590311890878</v>
       </c>
       <c r="Q8">
-        <v>0.1652621167109866</v>
+        <v>1.789937208013555</v>
       </c>
       <c r="R8">
-        <v>0.1652621167109866</v>
+        <v>16.109434872122</v>
       </c>
       <c r="S8">
-        <v>5.265844320704073E-06</v>
+        <v>5.490589492333669E-05</v>
       </c>
       <c r="T8">
-        <v>5.265844320704073E-06</v>
+        <v>5.500077341769491E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.875285369367083</v>
+        <v>157.3478953333333</v>
       </c>
       <c r="H9">
-        <v>0.875285369367083</v>
+        <v>472.043686</v>
       </c>
       <c r="I9">
-        <v>0.002982035008416273</v>
+        <v>0.5261369648659905</v>
       </c>
       <c r="J9">
-        <v>0.002982035008416273</v>
+        <v>0.5265296144488896</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>47.4832128187357</v>
+        <v>48.78764200000001</v>
       </c>
       <c r="N9">
-        <v>47.4832128187357</v>
+        <v>146.362926</v>
       </c>
       <c r="O9">
-        <v>0.4440907554135159</v>
+        <v>0.4475619218406647</v>
       </c>
       <c r="P9">
-        <v>0.4440907554135159</v>
+        <v>0.4480009802197716</v>
       </c>
       <c r="Q9">
-        <v>41.56136147078289</v>
+        <v>7676.632786976138</v>
       </c>
       <c r="R9">
-        <v>41.56136147078289</v>
+        <v>69089.69508278524</v>
       </c>
       <c r="S9">
-        <v>0.001324294179557133</v>
+        <v>0.235478871146837</v>
       </c>
       <c r="T9">
-        <v>0.001324294179557133</v>
+        <v>0.235885783387841</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>157.3478953333333</v>
+      </c>
+      <c r="H10">
+        <v>472.043686</v>
+      </c>
+      <c r="I10">
+        <v>0.5261369648659905</v>
+      </c>
+      <c r="J10">
+        <v>0.5265296144488896</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N10">
+        <v>178.849414</v>
+      </c>
+      <c r="O10">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P10">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q10">
+        <v>9380.5262915</v>
+      </c>
+      <c r="R10">
+        <v>84424.73662349999</v>
+      </c>
+      <c r="S10">
+        <v>0.2877453960847523</v>
+      </c>
+      <c r="T10">
+        <v>0.2882426259355206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>157.3478953333333</v>
+      </c>
+      <c r="H11">
+        <v>472.043686</v>
+      </c>
+      <c r="I11">
+        <v>0.5261369648659905</v>
+      </c>
+      <c r="J11">
+        <v>0.5265296144488896</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.271596</v>
+      </c>
+      <c r="N11">
+        <v>0.814788</v>
+      </c>
+      <c r="O11">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P11">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q11">
+        <v>42.735058980952</v>
+      </c>
+      <c r="R11">
+        <v>384.615530828568</v>
+      </c>
+      <c r="S11">
+        <v>0.001310887693403922</v>
+      </c>
+      <c r="T11">
+        <v>0.00131315293379016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>139.790128</v>
+      </c>
+      <c r="H12">
+        <v>419.3703839999999</v>
+      </c>
+      <c r="I12">
+        <v>0.4674276291293195</v>
+      </c>
+      <c r="J12">
+        <v>0.4677764646528982</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.320495</v>
+      </c>
+      <c r="N12">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P12">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q12">
+        <v>44.80203707336</v>
+      </c>
+      <c r="R12">
+        <v>268.81222244016</v>
+      </c>
+      <c r="S12">
+        <v>0.001374291751067231</v>
+      </c>
+      <c r="T12">
+        <v>0.0009177777032963492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>139.790128</v>
+      </c>
+      <c r="H13">
+        <v>419.3703839999999</v>
+      </c>
+      <c r="I13">
+        <v>0.4674276291293195</v>
+      </c>
+      <c r="J13">
+        <v>0.4677764646528982</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.034127</v>
+      </c>
+      <c r="O13">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P13">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q13">
+        <v>1.590205899418666</v>
+      </c>
+      <c r="R13">
+        <v>14.311853094768</v>
+      </c>
+      <c r="S13">
+        <v>4.877918489489839E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.88634763106983E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.875285369367083</v>
-      </c>
-      <c r="H10">
-        <v>0.875285369367083</v>
-      </c>
-      <c r="I10">
-        <v>0.002982035008416273</v>
-      </c>
-      <c r="J10">
-        <v>0.002982035008416273</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="N10">
-        <v>59.2502954250811</v>
-      </c>
-      <c r="O10">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="P10">
-        <v>0.5541433886170396</v>
-      </c>
-      <c r="Q10">
-        <v>51.8609167162509</v>
-      </c>
-      <c r="R10">
-        <v>51.8609167162509</v>
-      </c>
-      <c r="S10">
-        <v>0.001652474984538436</v>
-      </c>
-      <c r="T10">
-        <v>0.001652474984538436</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>139.790128</v>
+      </c>
+      <c r="H14">
+        <v>419.3703839999999</v>
+      </c>
+      <c r="I14">
+        <v>0.4674276291293195</v>
+      </c>
+      <c r="J14">
+        <v>0.4677764646528982</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N14">
+        <v>146.362926</v>
+      </c>
+      <c r="O14">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P14">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q14">
+        <v>6820.030719998176</v>
+      </c>
+      <c r="R14">
+        <v>61380.27647998359</v>
+      </c>
+      <c r="S14">
+        <v>0.2092028080145437</v>
+      </c>
+      <c r="T14">
+        <v>0.2095643146882377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>139.790128</v>
+      </c>
+      <c r="H15">
+        <v>419.3703839999999</v>
+      </c>
+      <c r="I15">
+        <v>0.4674276291293195</v>
+      </c>
+      <c r="J15">
+        <v>0.4677764646528982</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N15">
+        <v>178.849414</v>
+      </c>
+      <c r="O15">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P15">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q15">
+        <v>8333.794158594996</v>
+      </c>
+      <c r="R15">
+        <v>75004.14742735497</v>
+      </c>
+      <c r="S15">
+        <v>0.2556371387420585</v>
+      </c>
+      <c r="T15">
+        <v>0.256078884876235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>139.790128</v>
+      </c>
+      <c r="H16">
+        <v>419.3703839999999</v>
+      </c>
+      <c r="I16">
+        <v>0.4674276291293195</v>
+      </c>
+      <c r="J16">
+        <v>0.4677764646528982</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.271596</v>
+      </c>
+      <c r="N16">
+        <v>0.814788</v>
+      </c>
+      <c r="O16">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P16">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q16">
+        <v>37.966439604288</v>
+      </c>
+      <c r="R16">
+        <v>341.6979564385919</v>
+      </c>
+      <c r="S16">
+        <v>0.001164611436755193</v>
+      </c>
+      <c r="T16">
+        <v>0.001166623908818274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.255528333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.766585</v>
+      </c>
+      <c r="I17">
+        <v>0.004198212281161127</v>
+      </c>
+      <c r="J17">
+        <v>0.004201345355647805</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.320495</v>
+      </c>
+      <c r="N17">
+        <v>0.6409900000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.00294011664142989</v>
+      </c>
+      <c r="P17">
+        <v>0.001962000597822644</v>
+      </c>
+      <c r="Q17">
+        <v>0.4023905531916667</v>
+      </c>
+      <c r="R17">
+        <v>2.41434331915</v>
+      </c>
+      <c r="S17">
+        <v>1.234323379209717E-05</v>
+      </c>
+      <c r="T17">
+        <v>8.243042099440383E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.255528333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.766585</v>
+      </c>
+      <c r="I18">
+        <v>0.004198212281161127</v>
+      </c>
+      <c r="J18">
+        <v>0.004201345355647805</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.034127</v>
+      </c>
+      <c r="O18">
+        <v>0.0001043566572771055</v>
+      </c>
+      <c r="P18">
+        <v>0.0001044590311890878</v>
+      </c>
+      <c r="Q18">
+        <v>0.01428247181055555</v>
+      </c>
+      <c r="R18">
+        <v>0.128542246295</v>
+      </c>
+      <c r="S18">
+        <v>4.381114002016672E-07</v>
+      </c>
+      <c r="T18">
+        <v>4.388684655417431E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.255528333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.766585</v>
+      </c>
+      <c r="I19">
+        <v>0.004198212281161127</v>
+      </c>
+      <c r="J19">
+        <v>0.004201345355647805</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>48.78764200000001</v>
+      </c>
+      <c r="N19">
+        <v>146.362926</v>
+      </c>
+      <c r="O19">
+        <v>0.4475619218406647</v>
+      </c>
+      <c r="P19">
+        <v>0.4480009802197716</v>
+      </c>
+      <c r="Q19">
+        <v>61.25426684752334</v>
+      </c>
+      <c r="R19">
+        <v>551.2884016277101</v>
+      </c>
+      <c r="S19">
+        <v>0.001878959956851555</v>
+      </c>
+      <c r="T19">
+        <v>0.001882206837572002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.255528333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.766585</v>
+      </c>
+      <c r="I20">
+        <v>0.004198212281161127</v>
+      </c>
+      <c r="J20">
+        <v>0.004201345355647805</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>59.61647133333333</v>
+      </c>
+      <c r="N20">
+        <v>178.849414</v>
+      </c>
+      <c r="O20">
+        <v>0.5469020717030258</v>
+      </c>
+      <c r="P20">
+        <v>0.5474385827988417</v>
+      </c>
+      <c r="Q20">
+        <v>74.85016889235445</v>
+      </c>
+      <c r="R20">
+        <v>673.65152003119</v>
+      </c>
+      <c r="S20">
+        <v>0.002296010994016107</v>
+      </c>
+      <c r="T20">
+        <v>0.00229997854734433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.255528333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.766585</v>
+      </c>
+      <c r="I21">
+        <v>0.004198212281161127</v>
+      </c>
+      <c r="J21">
+        <v>0.004201345355647805</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.271596</v>
+      </c>
+      <c r="N21">
+        <v>0.814788</v>
+      </c>
+      <c r="O21">
+        <v>0.002491533157602434</v>
+      </c>
+      <c r="P21">
+        <v>0.00249397735237479</v>
+      </c>
+      <c r="Q21">
+        <v>0.34099647322</v>
+      </c>
+      <c r="R21">
+        <v>3.06896825898</v>
+      </c>
+      <c r="S21">
+        <v>1.04599851011667E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.047806016649063E-05</v>
       </c>
     </row>
   </sheetData>
